--- a/Kanban Board.xlsx
+++ b/Kanban Board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Kanban board" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">A TODO App</t>
+  </si>
   <si>
     <t xml:space="preserve">To-Do</t>
   </si>
@@ -32,13 +35,113 @@
     <t xml:space="preserve">Done</t>
   </si>
   <si>
+    <t xml:space="preserve">High Priority Tasks Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: User Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Users should be able to create and manage accounts, including setting their name, email address, and password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Estimate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: Task Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: MUsers should be able to create, edit, and delete tasks, as well as mark them as complete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Estimate: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: Task Reminder</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Users should be able to set reminders for tasks, so that they are notified when they are due.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Standard Tasks Card</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Task: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Task Organization</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Users should be able to organize tasks into lists and sublists, and prioritize them using due dates and priority levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: Task filtering and searching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Users should be able to filter and search tasks by various criteria, such as due date, priority level, and list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: Task sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Users should be able to share tasks with other users, and collaborate on completing them..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: Reporting and analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Users should be able to generate reports and analytics on their tasks, such as to-do lists by due date, completed tasks by week, and average time spent on tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description:</t>
   </si>
   <si>
     <t xml:space="preserve">Other Tasks Card</t>
   </si>
   <si>
-    <t xml:space="preserve">High Priority Tasks Card</t>
+    <t xml:space="preserve">Descrittion:</t>
   </si>
 </sst>
 </file>
@@ -48,11 +151,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,9 +177,28 @@
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,13 +208,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF6D"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3838"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
@@ -104,6 +239,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF468A1A"/>
+        <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,36 +288,80 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,7 +394,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -222,28 +413,70 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF3838"/>
+      <rgbColor rgb="FFFF972F"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF468A1A"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF355269"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>221400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162480" y="221400"/>
+          <a:ext cx="624600" cy="453600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -253,8 +486,8 @@
   </sheetPr>
   <dimension ref="B1:N1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I65" activeCellId="0" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -267,127 +500,219 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="F5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
       <c r="F14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="3"/>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="3"/>
       <c r="N22" s="3"/>
     </row>
@@ -396,43 +721,77 @@
       <c r="F23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3"/>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3"/>
+      <c r="C25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="3"/>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="3"/>
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="3"/>
+      <c r="C28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="3"/>
       <c r="N31" s="3"/>
     </row>
@@ -441,43 +800,77 @@
       <c r="F32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3"/>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3"/>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="3"/>
+      <c r="C35" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="3"/>
+      <c r="C36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="3"/>
+      <c r="C37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="3"/>
       <c r="N40" s="3"/>
     </row>
@@ -486,43 +879,77 @@
       <c r="F41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3"/>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="3"/>
+      <c r="C43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="3"/>
+      <c r="C44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="3"/>
+      <c r="C45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="3"/>
+      <c r="C46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="3"/>
       <c r="N49" s="3"/>
     </row>
@@ -531,43 +958,77 @@
       <c r="F50" s="3"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3"/>
+      <c r="C51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3"/>
+      <c r="C52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="3"/>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="3"/>
+      <c r="C53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="3"/>
+      <c r="C54" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="3"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="3"/>
+      <c r="C55" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="3"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="3"/>
       <c r="N58" s="3"/>
     </row>
@@ -576,43 +1037,80 @@
       <c r="F59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="3"/>
+      <c r="C60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="3"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3"/>
+      <c r="C61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="3"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="3"/>
+      <c r="C62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="3"/>
+      <c r="C63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="3"/>
+      <c r="C64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="3"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="3"/>
+      <c r="I65" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="3"/>
       <c r="N67" s="3"/>
     </row>
@@ -5287,13 +5785,46 @@
       <c r="N1001" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B:B"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F:F"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N:N"/>
+  <mergeCells count="39">
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5302,6 +5833,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5312,141 +5844,171 @@
   </sheetPr>
   <dimension ref="B8:H31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="F12" s="5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="F13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="F14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="F15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Kanban Board.xlsx
+++ b/Kanban Board.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
-    <t xml:space="preserve">A TODO App</t>
+    <t xml:space="preserve">Coconut</t>
   </si>
   <si>
     <t xml:space="preserve">To-Do</t>
@@ -65,47 +65,13 @@
     <t xml:space="preserve">Task: Task Reminder</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Description: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Users should be able to set reminders for tasks, so that they are notified when they are due.</t>
-    </r>
+    <t xml:space="preserve">Description: Users should be able to set reminders for tasks, so that they are notified when they are due.</t>
   </si>
   <si>
     <t xml:space="preserve">Standard Tasks Card</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Task: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Task Organization</t>
-    </r>
+    <t xml:space="preserve">Task: Task Organization</t>
   </si>
   <si>
     <t xml:space="preserve">Description: Users should be able to organize tasks into lists and sublists, and prioritize them using due dates and priority levels.</t>
@@ -151,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -185,17 +151,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -448,9 +403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>341280</xdr:colOff>
+      <xdr:colOff>340920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -464,7 +419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6162480" y="221400"/>
-          <a:ext cx="624600" cy="453600"/>
+          <a:ext cx="624240" cy="453240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -487,7 +442,7 @@
   <dimension ref="B1:N1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I65" activeCellId="0" sqref="I65"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1093,7 +1048,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="3"/>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="N65" s="3"/>
